--- a/temp figs.xlsx
+++ b/temp figs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/lhe2_ad_unc_edu/Documents/Documents/projects/ntw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{4C8B5679-8E33-D44E-B831-3F2CAE5793B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C738EC97-B818-964C-A4CA-713A150A358B}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{4C8B5679-8E33-D44E-B831-3F2CAE5793B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{439510A7-263A-794A-8366-07FF1D6CB461}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{84017D10-4509-084C-9811-4FC86B7B78D6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" xr2:uid="{84017D10-4509-084C-9811-4FC86B7B78D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>treatment</t>
   </si>
@@ -130,12 +131,30 @@
   <si>
     <t>time.wander</t>
   </si>
+  <si>
+    <t>avg.time.to.pupate</t>
+  </si>
+  <si>
+    <t>sd.time.to.pupate</t>
+  </si>
+  <si>
+    <t>avg.mass.wander</t>
+  </si>
+  <si>
+    <t>sd.mass.wander</t>
+  </si>
+  <si>
+    <t>mass.wander</t>
+  </si>
+  <si>
+    <t>time.pupate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,13 +182,55 @@
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -184,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -192,6 +253,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -295,7 +380,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$19</c:f>
+              <c:f>Sheet1!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -306,7 +391,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -320,36 +408,42 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$19:$I$19</c:f>
+                <c:f>Sheet1!$G$19:$J$19</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="4"/>
                   <c:pt idx="0">
                     <c:v>11.849437999999999</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>55.75759</c:v>
+                    <c:v>55.736260000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>275.66030000000001</c:v>
+                    <c:v>260.71730000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1492.7919999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$G$19:$I$19</c:f>
+                <c:f>Sheet1!$G$19:$J$19</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="4"/>
                   <c:pt idx="0">
                     <c:v>11.849437999999999</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>55.75759</c:v>
+                    <c:v>55.736260000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>275.66030000000001</c:v>
+                    <c:v>260.71730000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1492.7919999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -370,9 +464,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$18:$F$18</c:f>
+              <c:f>Sheet1!$C$18:$F$18</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>mass.3rd</c:v>
                 </c:pt>
@@ -381,24 +475,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>mass.5th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mass.wander</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$19:$F$19</c:f>
+              <c:f>Sheet1!$C$19:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>41.985239999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>261.44099999999997</c:v>
+                  <c:v>261.47899999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1597.5350000000001</c:v>
+                  <c:v>1590.982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10990.237999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,7 +514,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$20</c:f>
+              <c:f>Sheet1!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -425,7 +525,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -439,36 +541,42 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$20:$I$20</c:f>
+                <c:f>Sheet1!$G$20:$J$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>9.3209859999999995</c:v>
+                    <c:v>9.3338900000000002</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>43.044409999999999</c:v>
+                    <c:v>43.067410000000002</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>231.00360000000001</c:v>
+                    <c:v>229.35669999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1368.0129999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$G$20:$I$20</c:f>
+                <c:f>Sheet1!$G$20:$J$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>9.3209859999999995</c:v>
+                    <c:v>9.3338900000000002</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>43.044409999999999</c:v>
+                    <c:v>43.067410000000002</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>231.00360000000001</c:v>
+                    <c:v>229.35669999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1368.0129999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -489,9 +597,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$18:$F$18</c:f>
+              <c:f>Sheet1!$C$18:$F$18</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>mass.3rd</c:v>
                 </c:pt>
@@ -500,24 +608,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>mass.5th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mass.wander</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$20:$F$20</c:f>
+              <c:f>Sheet1!$C$20:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>40.396540000000002</c:v>
+                  <c:v>40.373460000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>231.67769999999999</c:v>
+                  <c:v>231.66309999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1611.807</c:v>
+                  <c:v>1591.8409999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10364.455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,7 +647,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$21</c:f>
+              <c:f>Sheet1!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -544,7 +658,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -558,36 +675,42 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$21:$I$21</c:f>
+                <c:f>Sheet1!$G$21:$J$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>18.03162</c:v>
+                    <c:v>18.516448</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>75.331509999999994</c:v>
+                    <c:v>75.336590000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>294.64519999999999</c:v>
+                    <c:v>237.51050000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1519.2629999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$G$21:$I$21</c:f>
+                <c:f>Sheet1!$G$21:$J$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>18.03162</c:v>
+                    <c:v>18.516448</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>75.331509999999994</c:v>
+                    <c:v>75.336590000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>294.64519999999999</c:v>
+                    <c:v>237.51050000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1519.2629999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -608,9 +731,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$18:$F$18</c:f>
+              <c:f>Sheet1!$C$18:$F$18</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>mass.3rd</c:v>
                 </c:pt>
@@ -619,24 +742,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>mass.5th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mass.wander</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$F$21</c:f>
+              <c:f>Sheet1!$C$21:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>52.344499999999996</c:v>
+                  <c:v>52.472110000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250.745</c:v>
+                  <c:v>246.8853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1363.7170000000001</c:v>
+                  <c:v>1350.338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8149.7290000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -652,7 +781,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$22</c:f>
+              <c:f>Sheet1!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -663,7 +792,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -677,10 +808,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$22:$I$22</c:f>
+                <c:f>Sheet1!$G$22:$J$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="4"/>
                   <c:pt idx="0">
                     <c:v>9.7216380000000004</c:v>
                   </c:pt>
@@ -688,17 +819,20 @@
                     <c:v>41.179780000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>169.6738</c:v>
+                    <c:v>227.24979999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1475.732</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$G$22:$I$22</c:f>
+                <c:f>Sheet1!$G$22:$J$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="4"/>
                   <c:pt idx="0">
                     <c:v>9.7216380000000004</c:v>
                   </c:pt>
@@ -706,7 +840,10 @@
                     <c:v>41.179780000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>169.6738</c:v>
+                    <c:v>227.24979999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1475.732</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -727,9 +864,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$18:$F$18</c:f>
+              <c:f>Sheet1!$C$18:$F$18</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>mass.3rd</c:v>
                 </c:pt>
@@ -738,16 +875,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>mass.5th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mass.wander</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$22:$F$22</c:f>
+              <c:f>Sheet1!$C$22:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>44.009230000000002</c:v>
                 </c:pt>
@@ -755,7 +895,10 @@
                   <c:v>217.24690000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1319.5989999999999</c:v>
+                  <c:v>1284.693</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7822.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,6 +1175,2427 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$T$19:$Y$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.48304589999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.40237390000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.46290999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.76842449999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.86971849999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.86971849999999995</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$T$19:$Y$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.48304589999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.40237390000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.46290999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.76842449999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.86971849999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.86971849999999995</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$18:$S$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>time.2nd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>time.3rd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>time.4th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>time.5th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>time.wander</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>time.pupate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$19:$S$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.6666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1904760000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2857139999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2380949999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.61538</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.615379999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74E1-5F49-AC3D-DCF06EE4BAE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>267</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$T$20:$Y$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.40191850000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.54912519999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.58177449999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.75752629999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.37553379999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.37553379999999997</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$T$20:$Y$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.40191850000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.54912519999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.58177449999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.75752629999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.37553379999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.37553379999999997</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$18:$S$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>time.2nd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>time.3rd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>time.4th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>time.5th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>time.wander</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>time.pupate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$20:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8076920000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3076920000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.538462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4230769999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.15385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.153849999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-882E-4A45-A3C3-E81B4113AD1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$T$21:$Y$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.50725730000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.50145989999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.60697699999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.88522639999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2210278999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0593499</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$T$21:$Y$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.50725730000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.50145989999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.60697699999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.88522639999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2210278999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0593499</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$18:$S$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>time.2nd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>time.3rd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>time.4th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>time.5th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>time.wander</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>time.pupate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$21:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4210529999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1578949999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5789470000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3157889999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.909090000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-882E-4A45-A3C3-E81B4113AD1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>337</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$T$22:$Y$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.50839109999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.58703950000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.70601809999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.91766289999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$T$22:$Y$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.50839109999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.58703950000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.70601809999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.91766289999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$18:$S$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>time.2nd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>time.3rd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>time.4th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>time.5th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>time.wander</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>time.pupate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$22:$S$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.461538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.230769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.538462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-882E-4A45-A3C3-E81B4113AD1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1093875424"/>
+        <c:axId val="1093877072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1093875424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093877072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1093877072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093875424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>avg</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> instar starting masses (mg)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$19:$J$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>11.849437999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>55.736260000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>260.71730000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1492.7919999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$19:$J$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>11.849437999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>55.736260000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>260.71730000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1492.7919999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>mass.3rd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mass.4th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mass.5th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>41.985239999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>261.47899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1590.982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A6E-C649-8FDC-8C6CD47D9500}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>267</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$20:$J$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.3338900000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>43.067410000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>229.35669999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1368.0129999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$20:$J$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.3338900000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>43.067410000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>229.35669999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1368.0129999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>mass.3rd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mass.4th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mass.5th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40.373460000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231.66309999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1591.8409999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4A6E-C649-8FDC-8C6CD47D9500}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$21:$J$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>18.516448</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>75.336590000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>237.51050000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1519.2629999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$21:$J$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>18.516448</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>75.336590000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>237.51050000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1519.2629999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>mass.3rd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mass.4th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mass.5th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>52.472110000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>246.8853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1350.338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4A6E-C649-8FDC-8C6CD47D9500}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>337</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$22:$J$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.7216380000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>41.179780000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>227.24979999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1475.732</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$22:$J$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.7216380000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>41.179780000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>227.24979999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1475.732</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>mass.3rd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mass.4th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mass.5th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>44.009230000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217.24690000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1284.693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4A6E-C649-8FDC-8C6CD47D9500}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1091114688"/>
+        <c:axId val="763565231"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1091114688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763565231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="763565231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1091114688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>avg</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> instar starting masses (mg)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$19:$I$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>11.849437999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>55.736260000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>260.71730000000002</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$19:$I$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>11.849437999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>55.736260000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>260.71730000000002</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>mass.3rd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mass.4th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mass.5th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>41.985239999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>261.47899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1590.982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06BE-8942-9F0A-A073017E2F4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>267</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$20:$I$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>9.3338900000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>43.067410000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>229.35669999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$20:$I$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>9.3338900000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>43.067410000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>229.35669999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>mass.3rd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mass.4th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mass.5th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40.373460000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231.66309999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1591.8409999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-06BE-8942-9F0A-A073017E2F4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$21:$I$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>18.516448</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>75.336590000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>237.51050000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$21:$I$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>18.516448</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>75.336590000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>237.51050000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>mass.3rd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mass.4th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mass.5th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>52.472110000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>246.8853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1350.338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-06BE-8942-9F0A-A073017E2F4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>337</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$22:$I$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>9.7216380000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>41.179780000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>227.24979999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$22:$I$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>9.7216380000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>41.179780000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>227.24979999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>mass.3rd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mass.4th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mass.5th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>44.009230000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217.24690000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1284.693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-06BE-8942-9F0A-A073017E2F4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1091114688"/>
+        <c:axId val="763565231"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1091114688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763565231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="763565231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1091114688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>avg time to instar (days)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -1039,9 +3603,6 @@
               <c:f>Sheet1!$K$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>260</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1061,42 +3622,54 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$Q$19:$U$19</c:f>
+                <c:f>Sheet1!$Q$19:$V$19</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
+                    <c:v>9.2380949999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.61538</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17.615379999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>0.48304589999999997</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="4">
                     <c:v>0.40237390000000001</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="5">
                     <c:v>0.46290999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.79880859999999998</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$Q$19:$U$19</c:f>
+                <c:f>Sheet1!$Q$19:$V$19</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
+                    <c:v>9.2380949999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.61538</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17.615379999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>0.48304589999999997</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="4">
                     <c:v>0.40237390000000001</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="5">
                     <c:v>0.46290999999999999</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.79880859999999998</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1120,20 +3693,14 @@
               <c:f>Sheet1!$L$18:$P$18</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:pt idx="2">
                   <c:v>time.2nd</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>time.3rd</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>time.4th</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>time.5th</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>time.wander</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1144,24 +3711,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.6666669999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>4.1904760000000003</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>6.2857139999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.266667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-882E-4A45-A3C3-E81B4113AD1D}"/>
+              <c16:uniqueId val="{00000000-19CC-AD4D-8931-7A22DE42D2E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1173,9 +3740,6 @@
               <c:f>Sheet1!$K$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>267</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1195,42 +3759,54 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$Q$20:$U$20</c:f>
+                <c:f>Sheet1!$Q$20:$V$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.45234429999999998</c:v>
+                    <c:v>9.4230769999999993</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>15.15385</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19.153849999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.40191850000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>0.54912519999999998</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="5">
                     <c:v>0.58177449999999997</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.78382339999999995</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$Q$20:$U$20</c:f>
+                <c:f>Sheet1!$Q$20:$V$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.45234429999999998</c:v>
+                    <c:v>9.4230769999999993</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>15.15385</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19.153849999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.40191850000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>0.54912519999999998</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="5">
                     <c:v>0.58177449999999997</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.78382339999999995</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1254,20 +3830,14 @@
               <c:f>Sheet1!$L$18:$P$18</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:pt idx="2">
                   <c:v>time.2nd</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>time.3rd</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>time.4th</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>time.5th</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>time.wander</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1278,24 +3848,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.730769</c:v>
-                </c:pt>
                 <c:pt idx="1">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8076920000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4.3076920000000003</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>6.538462</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.4444440000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-882E-4A45-A3C3-E81B4113AD1D}"/>
+              <c16:uniqueId val="{00000001-19CC-AD4D-8931-7A22DE42D2E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1307,9 +3877,6 @@
               <c:f>Sheet1!$K$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>330</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1329,48 +3896,54 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$Q$21:$U$21</c:f>
+                <c:f>Sheet1!$Q$21:$V$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.51041780000000003</c:v>
+                    <c:v>7.3157889999999997</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.48936049999999998</c:v>
+                    <c:v>11.909090000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.59824299999999997</c:v>
+                    <c:v>15.7</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.85485040000000001</c:v>
+                    <c:v>0.50725730000000002</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.5</c:v>
+                    <c:v>0.50145989999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.60697699999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$Q$21:$U$21</c:f>
+                <c:f>Sheet1!$Q$21:$V$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.51041780000000003</c:v>
+                    <c:v>7.3157889999999997</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.48936049999999998</c:v>
+                    <c:v>11.909090000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.59824299999999997</c:v>
+                    <c:v>15.7</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.85485040000000001</c:v>
+                    <c:v>0.50725730000000002</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.5</c:v>
+                    <c:v>0.50145989999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.60697699999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1394,20 +3967,14 @@
               <c:f>Sheet1!$L$18:$P$18</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:pt idx="2">
                   <c:v>time.2nd</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>time.3rd</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>time.4th</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>time.5th</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>time.wander</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1418,27 +3985,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.45</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.15</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>1.4210529999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6923079999999997</c:v>
+                  <c:v>3.1578949999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.75</c:v>
+                  <c:v>4.5789470000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-882E-4A45-A3C3-E81B4113AD1D}"/>
+              <c16:uniqueId val="{00000002-19CC-AD4D-8931-7A22DE42D2E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1450,9 +4014,6 @@
               <c:f>Sheet1!$K$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>337</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1472,42 +4033,54 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$Q$22:$U$22</c:f>
+                <c:f>Sheet1!$Q$22:$V$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>0.50839109999999998</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="4">
                     <c:v>0.58703950000000005</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="5">
                     <c:v>0.70601809999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.80930259999999998</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$Q$22:$U$22</c:f>
+                <c:f>Sheet1!$Q$22:$V$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>0.50839109999999998</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="4">
                     <c:v>0.58703950000000005</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="5">
                     <c:v>0.70601809999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.80930259999999998</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1531,20 +4104,14 @@
               <c:f>Sheet1!$L$18:$P$18</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:pt idx="2">
                   <c:v>time.2nd</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>time.3rd</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>time.4th</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>time.5th</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>time.wander</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1555,24 +4122,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.461538</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>3.230769</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>5.538462</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.1052630000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-882E-4A45-A3C3-E81B4113AD1D}"/>
+              <c16:uniqueId val="{00000003-19CC-AD4D-8931-7A22DE42D2E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1845,6 +4412,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2349,6 +5036,1515 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2925,7 +7121,130 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>200163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>618711</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3F4275-7282-6345-B6F9-19141F3135DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CBA2532-B8AC-F54C-AE2D-2BE3FA9BC902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5445CC-AE2D-794C-8695-F8D1F4E2757F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3225,71 +7544,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D31A59-316A-8C46-8B17-B2E0BAD47F57}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="150" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="184" workbookViewId="0">
+      <selection activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3309,527 +7641,1294 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2">
+        <v>260</v>
+      </c>
+      <c r="C3" s="2">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
+        <v>41.985239999999997</v>
+      </c>
+      <c r="E3" s="2">
+        <v>11.849437999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>261.47899999999998</v>
+      </c>
+      <c r="G3" s="2">
+        <v>55.736260000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1590.982</v>
+      </c>
+      <c r="I3" s="2">
+        <v>260.71730000000002</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10990.237999999999</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1492.7919999999999</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.6666669999999999</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.48304589999999997</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4.1904760000000003</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.40237390000000001</v>
+      </c>
+      <c r="P3" s="2">
+        <v>6.2857139999999996</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.46290999999999999</v>
+      </c>
+      <c r="R3" s="2">
+        <v>9.2380949999999995</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.76842449999999995</v>
+      </c>
+      <c r="T3" s="2">
+        <v>13.61538</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.86971849999999995</v>
+      </c>
+      <c r="V3" s="2">
+        <v>17.615379999999998</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.86971849999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2">
+        <v>267</v>
+      </c>
+      <c r="C4" s="2">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2">
+        <v>40.373460000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.3338900000000002</v>
+      </c>
+      <c r="F4" s="2">
+        <v>231.66309999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43.067410000000002</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1591.8409999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>229.35669999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10364.455</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1368.0129999999999</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.8076920000000001</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.40191850000000001</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4.3076920000000003</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.54912519999999998</v>
+      </c>
+      <c r="P4" s="2">
+        <v>6.538462</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.58177449999999997</v>
+      </c>
+      <c r="R4" s="2">
+        <v>9.4230769999999993</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.75752629999999999</v>
+      </c>
+      <c r="T4" s="2">
+        <v>15.15385</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.37553379999999997</v>
+      </c>
+      <c r="V4" s="2">
+        <v>19.153849999999998</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.37553379999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2">
+        <v>330</v>
+      </c>
+      <c r="C5" s="2">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>52.472110000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>18.516448</v>
+      </c>
+      <c r="F5" s="2">
+        <v>246.8853</v>
+      </c>
+      <c r="G5" s="2">
+        <v>75.336590000000001</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1350.338</v>
+      </c>
+      <c r="I5" s="2">
+        <v>237.51050000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>8149.7290000000003</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1519.2629999999999</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1.4210529999999999</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.50725730000000002</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3.1578949999999999</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.50145989999999996</v>
+      </c>
+      <c r="P5" s="2">
+        <v>4.5789470000000003</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.60697699999999999</v>
+      </c>
+      <c r="R5" s="2">
+        <v>7.3157889999999997</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.88522639999999997</v>
+      </c>
+      <c r="T5" s="2">
+        <v>11.909090000000001</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1.2210278999999999</v>
+      </c>
+      <c r="V5" s="2">
+        <v>15.7</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1.0593499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2">
+        <v>337</v>
+      </c>
+      <c r="C6" s="2">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44.009230000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9.7216380000000004</v>
+      </c>
+      <c r="F6" s="2">
+        <v>217.24690000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>41.179780000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1284.693</v>
+      </c>
+      <c r="I6" s="2">
+        <v>227.24979999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>7822.5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1475.732</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.461538</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.50839109999999998</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3.230769</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.58703950000000005</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5.538462</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.70601809999999998</v>
+      </c>
+      <c r="R6" s="2">
+        <v>9</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.91766289999999995</v>
+      </c>
+      <c r="T6" s="2">
+        <v>14</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>18</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="L17" s="4"/>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="8"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B19" s="15">
+        <v>260</v>
+      </c>
+      <c r="C19" s="13">
+        <v>41.985239999999997</v>
+      </c>
+      <c r="D19" s="13">
+        <v>261.47899999999998</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1590.982</v>
+      </c>
+      <c r="F19" s="13">
+        <v>10990.237999999999</v>
+      </c>
+      <c r="G19" s="9">
+        <v>11.849437999999999</v>
+      </c>
+      <c r="H19" s="9">
+        <v>55.736260000000001</v>
+      </c>
+      <c r="I19" s="9">
+        <v>260.71730000000002</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1492.7919999999999</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="15">
+        <v>260</v>
+      </c>
+      <c r="N19" s="13">
+        <v>1.6666669999999999</v>
+      </c>
+      <c r="O19" s="13">
+        <v>4.1904760000000003</v>
+      </c>
+      <c r="P19" s="13">
+        <v>6.2857139999999996</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>9.2380949999999995</v>
+      </c>
+      <c r="R19" s="13">
+        <v>13.61538</v>
+      </c>
+      <c r="S19" s="13">
+        <v>17.615379999999998</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0.48304589999999997</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0.40237390000000001</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0.46290999999999999</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0.76842449999999995</v>
+      </c>
+      <c r="X19" s="9">
+        <v>0.86971849999999995</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>0.86971849999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B20" s="16">
+        <v>267</v>
+      </c>
+      <c r="C20" s="13">
+        <v>40.373460000000001</v>
+      </c>
+      <c r="D20" s="13">
+        <v>231.66309999999999</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1591.8409999999999</v>
+      </c>
+      <c r="F20" s="13">
+        <v>10364.455</v>
+      </c>
+      <c r="G20" s="9">
+        <v>9.3338900000000002</v>
+      </c>
+      <c r="H20" s="9">
+        <v>43.067410000000002</v>
+      </c>
+      <c r="I20" s="9">
+        <v>229.35669999999999</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1368.0129999999999</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="16">
+        <v>267</v>
+      </c>
+      <c r="N20" s="13">
+        <v>1.8076920000000001</v>
+      </c>
+      <c r="O20" s="13">
+        <v>4.3076920000000003</v>
+      </c>
+      <c r="P20" s="13">
+        <v>6.538462</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>9.4230769999999993</v>
+      </c>
+      <c r="R20" s="13">
+        <v>15.15385</v>
+      </c>
+      <c r="S20" s="13">
+        <v>19.153849999999998</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0.40191850000000001</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0.54912519999999998</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0.58177449999999997</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0.75752629999999999</v>
+      </c>
+      <c r="X20" s="9">
+        <v>0.37553379999999997</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>0.37553379999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B21" s="17">
+        <v>330</v>
+      </c>
+      <c r="C21" s="13">
+        <v>52.472110000000001</v>
+      </c>
+      <c r="D21" s="13">
+        <v>246.8853</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1350.338</v>
+      </c>
+      <c r="F21" s="13">
+        <v>8149.7290000000003</v>
+      </c>
+      <c r="G21" s="9">
+        <v>18.516448</v>
+      </c>
+      <c r="H21" s="9">
+        <v>75.336590000000001</v>
+      </c>
+      <c r="I21" s="9">
+        <v>237.51050000000001</v>
+      </c>
+      <c r="J21" s="9">
+        <v>1519.2629999999999</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="17">
+        <v>330</v>
+      </c>
+      <c r="N21" s="13">
+        <v>1.4210529999999999</v>
+      </c>
+      <c r="O21" s="13">
+        <v>3.1578949999999999</v>
+      </c>
+      <c r="P21" s="13">
+        <v>4.5789470000000003</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>7.3157889999999997</v>
+      </c>
+      <c r="R21" s="13">
+        <v>11.909090000000001</v>
+      </c>
+      <c r="S21" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0.50725730000000002</v>
+      </c>
+      <c r="U21" s="9">
+        <v>0.50145989999999996</v>
+      </c>
+      <c r="V21" s="9">
+        <v>0.60697699999999999</v>
+      </c>
+      <c r="W21" s="9">
+        <v>0.88522639999999997</v>
+      </c>
+      <c r="X21" s="9">
+        <v>1.2210278999999999</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>1.0593499</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B22" s="18">
+        <v>337</v>
+      </c>
+      <c r="C22" s="13">
+        <v>44.009230000000002</v>
+      </c>
+      <c r="D22" s="13">
+        <v>217.24690000000001</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1284.693</v>
+      </c>
+      <c r="F22" s="13">
+        <v>7822.5</v>
+      </c>
+      <c r="G22" s="9">
+        <v>9.7216380000000004</v>
+      </c>
+      <c r="H22" s="9">
+        <v>41.179780000000001</v>
+      </c>
+      <c r="I22" s="9">
+        <v>227.24979999999999</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1475.732</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="18">
+        <v>337</v>
+      </c>
+      <c r="N22" s="13">
+        <v>1.461538</v>
+      </c>
+      <c r="O22" s="13">
+        <v>3.230769</v>
+      </c>
+      <c r="P22" s="13">
+        <v>5.538462</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>9</v>
+      </c>
+      <c r="R22" s="13">
+        <v>14</v>
+      </c>
+      <c r="S22" s="13">
+        <v>18</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0.50839109999999998</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0.58703950000000005</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0.70601809999999998</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0.91766289999999995</v>
+      </c>
+      <c r="X22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="N17:R17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5697BF0-3995-194D-A4BB-9D78AC7A358A}">
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:S19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>260</v>
+      </c>
+      <c r="B2" s="2">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2">
+        <v>41.985239999999997</v>
+      </c>
+      <c r="D2" s="2">
+        <v>11.849437999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>261.47899999999998</v>
+      </c>
+      <c r="F2" s="2">
+        <v>55.736260000000001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1590.982</v>
+      </c>
+      <c r="H2" s="2">
+        <v>260.71730000000002</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.6666669999999999</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.48304589999999997</v>
+      </c>
+      <c r="K2" s="2">
+        <v>4.1904760000000003</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.40237390000000001</v>
+      </c>
+      <c r="M2" s="2">
+        <v>6.2857139999999996</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.46290999999999999</v>
+      </c>
+      <c r="O2" s="2">
+        <v>9.2380949999999995</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.76842449999999995</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>13.61538</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.86971849999999995</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
+        <v>267</v>
+      </c>
+      <c r="B3" s="2">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2">
+        <v>40.373460000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9.3338900000000002</v>
+      </c>
+      <c r="E3" s="2">
+        <v>231.66309999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43.067410000000002</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1591.8409999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>229.35669999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.8076920000000001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.40191850000000001</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4.3076920000000003</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.54912519999999998</v>
+      </c>
+      <c r="M3" s="2">
+        <v>6.538462</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.58177449999999997</v>
+      </c>
+      <c r="O3" s="2">
+        <v>9.4230769999999993</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.75752629999999999</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>15.15385</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.37553379999999997</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>330</v>
+      </c>
+      <c r="B4" s="2">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>52.472110000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18.516448</v>
+      </c>
+      <c r="E4" s="2">
+        <v>246.8853</v>
+      </c>
+      <c r="F4" s="2">
+        <v>75.336590000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1350.338</v>
+      </c>
+      <c r="H4" s="2">
+        <v>237.51050000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.4210529999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.50725730000000002</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3.1578949999999999</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.50145989999999996</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4.5789470000000003</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.60697699999999999</v>
+      </c>
+      <c r="O4" s="2">
+        <v>7.3157889999999997</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.88522639999999997</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>11.909090000000001</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1.2210278999999999</v>
+      </c>
+      <c r="S4" s="2">
+        <v>14.75</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>337</v>
+      </c>
+      <c r="B5" s="2">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44.009230000000002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9.7216380000000004</v>
+      </c>
+      <c r="E5" s="2">
+        <v>217.24690000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>41.179780000000001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1284.693</v>
+      </c>
+      <c r="H5" s="2">
+        <v>227.24979999999999</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.461538</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.50839109999999998</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3.230769</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.58703950000000005</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5.538462</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.70601809999999998</v>
+      </c>
+      <c r="O5" s="2">
+        <v>9</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.91766289999999995</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>14</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>260</v>
       </c>
-      <c r="B3" s="2">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B16" s="2">
         <v>41.985239999999997</v>
       </c>
-      <c r="D3" s="2">
+      <c r="C16" s="2">
+        <v>261.44099999999997</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1597.5350000000001</v>
+      </c>
+      <c r="E16" s="2">
         <v>11.849437999999999</v>
       </c>
-      <c r="E3" s="2">
-        <v>261.44099999999997</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="F16" s="2">
         <v>55.75759</v>
       </c>
-      <c r="G3" s="2">
-        <v>1597.5350000000001</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G16" s="2">
         <v>275.66030000000001</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I16">
+        <v>260</v>
+      </c>
+      <c r="J16" s="2">
         <v>1.6666669999999999</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K16" s="2">
+        <v>4.1904760000000003</v>
+      </c>
+      <c r="L16" s="2">
+        <v>6.2857139999999996</v>
+      </c>
+      <c r="M16" s="2">
+        <v>9.266667</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2">
         <v>0.48304589999999997</v>
       </c>
-      <c r="K3" s="2">
-        <v>4.1904760000000003</v>
-      </c>
-      <c r="L3" s="2">
+      <c r="P16" s="2">
         <v>0.40237390000000001</v>
       </c>
-      <c r="M3" s="2">
-        <v>6.2857139999999996</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="Q16" s="2">
         <v>0.46290999999999999</v>
       </c>
-      <c r="O3" s="2">
-        <v>9.266667</v>
-      </c>
-      <c r="P3" s="2">
+      <c r="R16" s="2">
         <v>0.79880859999999998</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="S16" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>267</v>
       </c>
-      <c r="B4" s="2">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B17" s="2">
         <v>40.396540000000002</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C17" s="2">
+        <v>231.67769999999999</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1611.807</v>
+      </c>
+      <c r="E17" s="2">
         <v>9.3209859999999995</v>
       </c>
-      <c r="E4" s="2">
-        <v>231.67769999999999</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="F17" s="2">
         <v>43.044409999999999</v>
       </c>
-      <c r="G4" s="2">
-        <v>1611.807</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G17" s="2">
         <v>231.00360000000001</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I17">
+        <v>267</v>
+      </c>
+      <c r="J17" s="2">
         <v>1.730769</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K17" s="2">
+        <v>4.3076920000000003</v>
+      </c>
+      <c r="L17" s="2">
+        <v>6.538462</v>
+      </c>
+      <c r="M17" s="2">
+        <v>9.4444440000000007</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2">
         <v>0.45234429999999998</v>
       </c>
-      <c r="K4" s="2">
-        <v>4.3076920000000003</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="P17" s="2">
         <v>0.54912519999999998</v>
       </c>
-      <c r="M4" s="2">
-        <v>6.538462</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="Q17" s="2">
         <v>0.58177449999999997</v>
       </c>
-      <c r="O4" s="2">
-        <v>9.4444440000000007</v>
-      </c>
-      <c r="P4" s="2">
+      <c r="R17" s="2">
         <v>0.78382339999999995</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="S17" s="3"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>330</v>
       </c>
-      <c r="B5" s="2">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B18" s="2">
         <v>52.344499999999996</v>
       </c>
-      <c r="D5" s="2">
+      <c r="C18" s="2">
+        <v>250.745</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1363.7170000000001</v>
+      </c>
+      <c r="E18" s="2">
         <v>18.03162</v>
       </c>
-      <c r="E5" s="2">
-        <v>250.745</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="F18" s="2">
         <v>75.331509999999994</v>
       </c>
-      <c r="G5" s="2">
-        <v>1363.7170000000001</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G18" s="2">
         <v>294.64519999999999</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I18">
+        <v>330</v>
+      </c>
+      <c r="J18" s="2">
         <v>1.45</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K18" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="L18" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M18" s="2">
+        <v>7.6923079999999997</v>
+      </c>
+      <c r="N18" s="2">
+        <v>10.75</v>
+      </c>
+      <c r="O18" s="2">
         <v>0.51041780000000003</v>
       </c>
-      <c r="K5" s="2">
-        <v>3.15</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="P18" s="2">
         <v>0.48936049999999998</v>
       </c>
-      <c r="M5" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="Q18" s="2">
         <v>0.59824299999999997</v>
       </c>
-      <c r="O5" s="2">
-        <v>7.6923079999999997</v>
-      </c>
-      <c r="P5" s="2">
+      <c r="R18" s="2">
         <v>0.85485040000000001</v>
       </c>
-      <c r="Q5" s="2">
-        <v>10.75</v>
-      </c>
-      <c r="R5" s="2">
+      <c r="S18" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>337</v>
       </c>
-      <c r="B6" s="2">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B19" s="2">
         <v>44.009230000000002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="C19" s="2">
+        <v>217.24690000000001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1319.5989999999999</v>
+      </c>
+      <c r="E19" s="2">
         <v>9.7216380000000004</v>
       </c>
-      <c r="E6" s="2">
-        <v>217.24690000000001</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="F19" s="2">
         <v>41.179780000000001</v>
       </c>
-      <c r="G6" s="2">
-        <v>1319.5989999999999</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G19" s="2">
         <v>169.6738</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I19">
+        <v>337</v>
+      </c>
+      <c r="J19" s="2">
         <v>1.461538</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K19" s="2">
+        <v>3.230769</v>
+      </c>
+      <c r="L19" s="2">
+        <v>5.538462</v>
+      </c>
+      <c r="M19" s="2">
+        <v>9.1052630000000008</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2">
         <v>0.50839109999999998</v>
       </c>
-      <c r="K6" s="2">
-        <v>3.230769</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="P19" s="2">
         <v>0.58703950000000005</v>
       </c>
-      <c r="M6" s="2">
-        <v>5.538462</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="Q19" s="2">
         <v>0.70601809999999998</v>
       </c>
-      <c r="O6" s="2">
-        <v>9.1052630000000008</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.80930259999999998</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O18" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" t="s">
-        <v>27</v>
-      </c>
-      <c r="S18" t="s">
-        <v>28</v>
-      </c>
-      <c r="T18" t="s">
-        <v>29</v>
-      </c>
-      <c r="U18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C19">
-        <v>260</v>
-      </c>
-      <c r="D19" s="2">
-        <v>41.985239999999997</v>
-      </c>
-      <c r="E19" s="2">
-        <v>261.44099999999997</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1597.5350000000001</v>
-      </c>
-      <c r="G19" s="2">
-        <v>11.849437999999999</v>
-      </c>
-      <c r="H19" s="2">
-        <v>55.75759</v>
-      </c>
-      <c r="I19" s="2">
-        <v>275.66030000000001</v>
-      </c>
-      <c r="K19">
-        <v>260</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1.6666669999999999</v>
-      </c>
-      <c r="M19" s="2">
-        <v>4.1904760000000003</v>
-      </c>
-      <c r="N19" s="2">
-        <v>6.2857139999999996</v>
-      </c>
-      <c r="O19" s="2">
-        <v>9.266667</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2">
-        <v>0.48304589999999997</v>
-      </c>
       <c r="R19" s="2">
-        <v>0.40237390000000001</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0.46290999999999999</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0.79880859999999998</v>
-      </c>
-      <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C20">
-        <v>267</v>
-      </c>
-      <c r="D20" s="2">
-        <v>40.396540000000002</v>
-      </c>
-      <c r="E20" s="2">
-        <v>231.67769999999999</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1611.807</v>
-      </c>
-      <c r="G20" s="2">
-        <v>9.3209859999999995</v>
-      </c>
-      <c r="H20" s="2">
-        <v>43.044409999999999</v>
-      </c>
-      <c r="I20" s="2">
-        <v>231.00360000000001</v>
-      </c>
-      <c r="K20">
-        <v>267</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1.730769</v>
-      </c>
-      <c r="M20" s="2">
-        <v>4.3076920000000003</v>
-      </c>
-      <c r="N20" s="2">
-        <v>6.538462</v>
-      </c>
-      <c r="O20" s="2">
-        <v>9.4444440000000007</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2">
-        <v>0.45234429999999998</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0.54912519999999998</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0.58177449999999997</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0.78382339999999995</v>
-      </c>
-      <c r="U20" s="3"/>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <v>330</v>
-      </c>
-      <c r="D21" s="2">
-        <v>52.344499999999996</v>
-      </c>
-      <c r="E21" s="2">
-        <v>250.745</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1363.7170000000001</v>
-      </c>
-      <c r="G21" s="2">
-        <v>18.03162</v>
-      </c>
-      <c r="H21" s="2">
-        <v>75.331509999999994</v>
-      </c>
-      <c r="I21" s="2">
-        <v>294.64519999999999</v>
-      </c>
-      <c r="K21">
-        <v>330</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1.45</v>
-      </c>
-      <c r="M21" s="2">
-        <v>3.15</v>
-      </c>
-      <c r="N21" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="O21" s="2">
-        <v>7.6923079999999997</v>
-      </c>
-      <c r="P21" s="2">
-        <v>10.75</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0.51041780000000003</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0.48936049999999998</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0.59824299999999997</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0.85485040000000001</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C22">
-        <v>337</v>
-      </c>
-      <c r="D22" s="2">
-        <v>44.009230000000002</v>
-      </c>
-      <c r="E22" s="2">
-        <v>217.24690000000001</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1319.5989999999999</v>
-      </c>
-      <c r="G22" s="2">
-        <v>9.7216380000000004</v>
-      </c>
-      <c r="H22" s="2">
-        <v>41.179780000000001</v>
-      </c>
-      <c r="I22" s="2">
-        <v>169.6738</v>
-      </c>
-      <c r="K22">
-        <v>337</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1.461538</v>
-      </c>
-      <c r="M22" s="2">
-        <v>3.230769</v>
-      </c>
-      <c r="N22" s="2">
-        <v>5.538462</v>
-      </c>
-      <c r="O22" s="2">
-        <v>9.1052630000000008</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2">
-        <v>0.50839109999999998</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0.58703950000000005</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0.70601809999999998</v>
-      </c>
-      <c r="T22" s="2">
         <v>0.80930259999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:S14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/temp figs.xlsx
+++ b/temp figs.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="68" documentId="8_{4C8B5679-8E33-D44E-B831-3F2CAE5793B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{439510A7-263A-794A-8366-07FF1D6CB461}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" xr2:uid="{84017D10-4509-084C-9811-4FC86B7B78D6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18960" activeTab="1" xr2:uid="{84017D10-4509-084C-9811-4FC86B7B78D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7546,8 +7546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D31A59-316A-8C46-8B17-B2E0BAD47F57}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="184" workbookViewId="0">
-      <selection activeCell="N71" sqref="N71"/>
+    <sheetView zoomScale="184" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8314,8 +8314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5697BF0-3995-194D-A4BB-9D78AC7A358A}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:S19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/temp figs.xlsx
+++ b/temp figs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/lhe2_ad_unc_edu/Documents/Documents/projects/ntw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{4C8B5679-8E33-D44E-B831-3F2CAE5793B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{439510A7-263A-794A-8366-07FF1D6CB461}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="8_{4C8B5679-8E33-D44E-B831-3F2CAE5793B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A37A09C5-C24B-EE44-A73F-4288AB7CAF9B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18960" activeTab="1" xr2:uid="{84017D10-4509-084C-9811-4FC86B7B78D6}"/>
+    <workbookView xWindow="5700" yWindow="500" windowWidth="27900" windowHeight="18960" xr2:uid="{84017D10-4509-084C-9811-4FC86B7B78D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="40">
   <si>
     <t>treatment</t>
   </si>
@@ -149,12 +150,24 @@
   <si>
     <t>time.pupate</t>
   </si>
+  <si>
+    <t>total n</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>pmd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +200,14 @@
       <color rgb="FF333333"/>
       <name val="Lucida Grande"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -245,14 +266,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -262,21 +280,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -329,13 +352,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>avg</a:t>
+              <a:t>LOG(avg</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> instar starting masses (mg)</a:t>
+              <a:t> instar starting masses (mg))</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -380,7 +402,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$19</c:f>
+              <c:f>'Sheet1 (2)'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -408,42 +430,42 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$19:$J$19</c:f>
+                <c:f>'Sheet1 (2)'!$G$19:$J$19</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>11.849437999999999</c:v>
+                    <c:v>1.0736977529379583</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>55.736260000000001</c:v>
+                    <c:v>1.7461378234397813</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>260.71730000000002</c:v>
+                    <c:v>2.4161698499073299</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1492.7919999999999</c:v>
+                    <c:v>3.1739992989873893</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$G$19:$J$19</c:f>
+                <c:f>'Sheet1 (2)'!$G$19:$J$19</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>11.849437999999999</c:v>
+                    <c:v>1.0736977529379583</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>55.736260000000001</c:v>
+                    <c:v>1.7461378234397813</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>260.71730000000002</c:v>
+                    <c:v>2.4161698499073299</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1492.7919999999999</c:v>
+                    <c:v>3.1739992989873893</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -464,7 +486,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$18:$F$18</c:f>
+              <c:f>'Sheet1 (2)'!$C$18:$F$18</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -484,28 +506,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$19:$F$19</c:f>
+              <c:f>'Sheet1 (2)'!$C$19:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>41.985239999999997</c:v>
+                  <c:v>1.6230966400841338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>261.47899999999998</c:v>
+                  <c:v>2.4174368153817176</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1590.982</c:v>
+                  <c:v>3.2016652661677032</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10990.237999999999</c:v>
+                  <c:v>4.0410070974250827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D1C7-BD4B-BBFE-C940B188B5FA}"/>
+              <c16:uniqueId val="{00000000-E9CB-9444-A955-7C6D040D5EA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -514,7 +536,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$20</c:f>
+              <c:f>'Sheet1 (2)'!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -541,42 +563,42 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$20:$J$20</c:f>
+                <c:f>'Sheet1 (2)'!$G$20:$J$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>9.3338900000000002</c:v>
+                    <c:v>0.97006267841387817</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>43.067410000000002</c:v>
+                    <c:v>1.6341487548243623</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>229.35669999999999</c:v>
+                    <c:v>2.3605114313244564</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1368.0129999999999</c:v>
+                    <c:v>3.1360902244319329</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$G$20:$J$20</c:f>
+                <c:f>'Sheet1 (2)'!$G$20:$J$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>9.3338900000000002</c:v>
+                    <c:v>0.97006267841387817</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>43.067410000000002</c:v>
+                    <c:v>1.6341487548243623</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>229.35669999999999</c:v>
+                    <c:v>2.3605114313244564</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1368.0129999999999</c:v>
+                    <c:v>3.1360902244319329</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -597,7 +619,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$18:$F$18</c:f>
+              <c:f>'Sheet1 (2)'!$C$18:$F$18</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -617,28 +639,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$F$20</c:f>
+              <c:f>'Sheet1 (2)'!$C$20:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>40.373460000000001</c:v>
+                  <c:v>1.6060959699829356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>231.66309999999999</c:v>
+                  <c:v>2.3648568635586122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1591.8409999999999</c:v>
+                  <c:v>3.2018996863469043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10364.455</c:v>
+                  <c:v>4.0155464702778731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D1C7-BD4B-BBFE-C940B188B5FA}"/>
+              <c16:uniqueId val="{00000001-E9CB-9444-A955-7C6D040D5EA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -647,7 +669,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$21</c:f>
+              <c:f>'Sheet1 (2)'!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -675,42 +697,42 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$21:$J$21</c:f>
+                <c:f>'Sheet1 (2)'!$G$21:$J$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>18.516448</c:v>
+                    <c:v>1.2675576798648325</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>75.336590000000001</c:v>
+                    <c:v>1.8770059586108225</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>237.51050000000001</c:v>
+                    <c:v>2.3756828139240893</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1519.2629999999999</c:v>
+                    <c:v>3.1816329611978036</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$G$21:$J$21</c:f>
+                <c:f>'Sheet1 (2)'!$G$21:$J$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>18.516448</c:v>
+                    <c:v>1.2675576798648325</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>75.336590000000001</c:v>
+                    <c:v>1.8770059586108225</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>237.51050000000001</c:v>
+                    <c:v>2.3756828139240893</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1519.2629999999999</c:v>
+                    <c:v>3.1816329611978036</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -731,7 +753,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$18:$F$18</c:f>
+              <c:f>'Sheet1 (2)'!$C$18:$F$18</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -751,28 +773,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$21:$F$21</c:f>
+              <c:f>'Sheet1 (2)'!$C$21:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>52.472110000000001</c:v>
+                  <c:v>1.7199285283289332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>246.8853</c:v>
+                  <c:v>2.3924952320180339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1350.338</c:v>
+                  <c:v>3.1304424893556169</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8149.7290000000003</c:v>
+                  <c:v>3.9111431675422601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D1C7-BD4B-BBFE-C940B188B5FA}"/>
+              <c16:uniqueId val="{00000002-E9CB-9444-A955-7C6D040D5EA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -781,7 +803,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$22</c:f>
+              <c:f>'Sheet1 (2)'!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -808,42 +830,42 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$22:$J$22</c:f>
+                <c:f>'Sheet1 (2)'!$G$22:$J$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>9.7216380000000004</c:v>
+                    <c:v>0.9877394454230044</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>41.179780000000001</c:v>
+                    <c:v>1.6146840221013123</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>227.24979999999999</c:v>
+                    <c:v>2.3565035096764708</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1475.732</c:v>
+                    <c:v>3.1690074946895397</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$G$22:$J$22</c:f>
+                <c:f>'Sheet1 (2)'!$G$22:$J$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>9.7216380000000004</c:v>
+                    <c:v>0.9877394454230044</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>41.179780000000001</c:v>
+                    <c:v>1.6146840221013123</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>227.24979999999999</c:v>
+                    <c:v>2.3565035096764708</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1475.732</c:v>
+                    <c:v>3.1690074946895397</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -864,7 +886,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$18:$F$18</c:f>
+              <c:f>'Sheet1 (2)'!$C$18:$F$18</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -884,28 +906,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$22:$F$22</c:f>
+              <c:f>'Sheet1 (2)'!$C$22:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>44.009230000000002</c:v>
+                  <c:v>1.6435437700699551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>217.24690000000001</c:v>
+                  <c:v>2.3369535880090839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1284.693</c:v>
+                  <c:v>3.1087993577566051</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7822.5</c:v>
+                  <c:v>3.893345571818231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D1C7-BD4B-BBFE-C940B188B5FA}"/>
+              <c16:uniqueId val="{00000003-E9CB-9444-A955-7C6D040D5EA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1179,7 +1201,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$19</c:f>
+              <c:f>'Sheet1 (2)'!$M$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1207,7 +1229,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$T$19:$Y$19</c:f>
+                <c:f>'Sheet1 (2)'!$T$19:$Y$19</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -1234,7 +1256,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$T$19:$Y$19</c:f>
+                <c:f>'Sheet1 (2)'!$T$19:$Y$19</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -1275,7 +1297,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$N$18:$S$18</c:f>
+              <c:f>'Sheet1 (2)'!$N$18:$S$18</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1301,7 +1323,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$19:$S$19</c:f>
+              <c:f>'Sheet1 (2)'!$N$19:$S$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1328,7 +1350,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-74E1-5F49-AC3D-DCF06EE4BAE0}"/>
+              <c16:uniqueId val="{00000000-A07B-4741-B45D-79B620D11C00}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1337,7 +1359,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$20</c:f>
+              <c:f>'Sheet1 (2)'!$M$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1364,7 +1386,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$T$20:$Y$20</c:f>
+                <c:f>'Sheet1 (2)'!$T$20:$Y$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -1391,7 +1413,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$T$20:$Y$20</c:f>
+                <c:f>'Sheet1 (2)'!$T$20:$Y$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -1432,7 +1454,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$N$18:$S$18</c:f>
+              <c:f>'Sheet1 (2)'!$N$18:$S$18</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1458,7 +1480,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$20:$S$20</c:f>
+              <c:f>'Sheet1 (2)'!$N$20:$S$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1485,7 +1507,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-882E-4A45-A3C3-E81B4113AD1D}"/>
+              <c16:uniqueId val="{00000001-A07B-4741-B45D-79B620D11C00}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1494,7 +1516,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$21</c:f>
+              <c:f>'Sheet1 (2)'!$M$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1522,7 +1544,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$T$21:$Y$21</c:f>
+                <c:f>'Sheet1 (2)'!$T$21:$Y$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -1549,7 +1571,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$T$21:$Y$21</c:f>
+                <c:f>'Sheet1 (2)'!$T$21:$Y$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -1590,7 +1612,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$N$18:$S$18</c:f>
+              <c:f>'Sheet1 (2)'!$N$18:$S$18</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1616,7 +1638,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$21:$S$21</c:f>
+              <c:f>'Sheet1 (2)'!$N$21:$S$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1643,7 +1665,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-882E-4A45-A3C3-E81B4113AD1D}"/>
+              <c16:uniqueId val="{00000002-A07B-4741-B45D-79B620D11C00}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1652,7 +1674,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$22</c:f>
+              <c:f>'Sheet1 (2)'!$M$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1679,7 +1701,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$T$22:$Y$22</c:f>
+                <c:f>'Sheet1 (2)'!$T$22:$Y$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -1706,7 +1728,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$T$22:$Y$22</c:f>
+                <c:f>'Sheet1 (2)'!$T$22:$Y$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -1747,7 +1769,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$N$18:$S$18</c:f>
+              <c:f>'Sheet1 (2)'!$N$18:$S$18</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1773,7 +1795,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$22:$S$22</c:f>
+              <c:f>'Sheet1 (2)'!$N$22:$S$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1800,7 +1822,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-882E-4A45-A3C3-E81B4113AD1D}"/>
+              <c16:uniqueId val="{00000003-A07B-4741-B45D-79B620D11C00}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2028,13 +2050,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>avg</a:t>
+              <a:t>LOG(avg</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> instar starting masses (mg)</a:t>
+              <a:t> instar starting masses (mg))</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2079,7 +2100,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$19</c:f>
+              <c:f>'Sheet1 (2)'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2107,42 +2128,42 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$19:$J$19</c:f>
+                <c:f>'Sheet1 (2)'!$G$19:$J$19</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>11.849437999999999</c:v>
+                    <c:v>1.0736977529379583</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>55.736260000000001</c:v>
+                    <c:v>1.7461378234397813</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>260.71730000000002</c:v>
+                    <c:v>2.4161698499073299</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1492.7919999999999</c:v>
+                    <c:v>3.1739992989873893</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$G$19:$J$19</c:f>
+                <c:f>'Sheet1 (2)'!$G$19:$J$19</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>11.849437999999999</c:v>
+                    <c:v>1.0736977529379583</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>55.736260000000001</c:v>
+                    <c:v>1.7461378234397813</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>260.71730000000002</c:v>
+                    <c:v>2.4161698499073299</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1492.7919999999999</c:v>
+                    <c:v>3.1739992989873893</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2163,7 +2184,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$18:$E$18</c:f>
+              <c:f>'Sheet1 (2)'!$C$18:$E$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2180,25 +2201,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$19:$E$19</c:f>
+              <c:f>'Sheet1 (2)'!$C$19:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>41.985239999999997</c:v>
+                  <c:v>1.6230966400841338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>261.47899999999998</c:v>
+                  <c:v>2.4174368153817176</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1590.982</c:v>
+                  <c:v>3.2016652661677032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A6E-C649-8FDC-8C6CD47D9500}"/>
+              <c16:uniqueId val="{00000000-D69E-1543-B00A-DA851C7C0D64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2207,7 +2228,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$20</c:f>
+              <c:f>'Sheet1 (2)'!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2234,42 +2255,42 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$20:$J$20</c:f>
+                <c:f>'Sheet1 (2)'!$G$20:$J$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>9.3338900000000002</c:v>
+                    <c:v>0.97006267841387817</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>43.067410000000002</c:v>
+                    <c:v>1.6341487548243623</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>229.35669999999999</c:v>
+                    <c:v>2.3605114313244564</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1368.0129999999999</c:v>
+                    <c:v>3.1360902244319329</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$G$20:$J$20</c:f>
+                <c:f>'Sheet1 (2)'!$G$20:$J$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>9.3338900000000002</c:v>
+                    <c:v>0.97006267841387817</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>43.067410000000002</c:v>
+                    <c:v>1.6341487548243623</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>229.35669999999999</c:v>
+                    <c:v>2.3605114313244564</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1368.0129999999999</c:v>
+                    <c:v>3.1360902244319329</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2290,7 +2311,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$18:$E$18</c:f>
+              <c:f>'Sheet1 (2)'!$C$18:$E$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2307,25 +2328,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$E$20</c:f>
+              <c:f>'Sheet1 (2)'!$C$20:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>40.373460000000001</c:v>
+                  <c:v>1.6060959699829356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>231.66309999999999</c:v>
+                  <c:v>2.3648568635586122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1591.8409999999999</c:v>
+                  <c:v>3.2018996863469043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4A6E-C649-8FDC-8C6CD47D9500}"/>
+              <c16:uniqueId val="{00000001-D69E-1543-B00A-DA851C7C0D64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2334,7 +2355,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$21</c:f>
+              <c:f>'Sheet1 (2)'!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2362,42 +2383,42 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$21:$J$21</c:f>
+                <c:f>'Sheet1 (2)'!$G$21:$J$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>18.516448</c:v>
+                    <c:v>1.2675576798648325</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>75.336590000000001</c:v>
+                    <c:v>1.8770059586108225</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>237.51050000000001</c:v>
+                    <c:v>2.3756828139240893</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1519.2629999999999</c:v>
+                    <c:v>3.1816329611978036</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$G$21:$J$21</c:f>
+                <c:f>'Sheet1 (2)'!$G$21:$J$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>18.516448</c:v>
+                    <c:v>1.2675576798648325</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>75.336590000000001</c:v>
+                    <c:v>1.8770059586108225</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>237.51050000000001</c:v>
+                    <c:v>2.3756828139240893</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1519.2629999999999</c:v>
+                    <c:v>3.1816329611978036</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2418,7 +2439,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$18:$E$18</c:f>
+              <c:f>'Sheet1 (2)'!$C$18:$E$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2435,25 +2456,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$21:$E$21</c:f>
+              <c:f>'Sheet1 (2)'!$C$21:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>52.472110000000001</c:v>
+                  <c:v>1.7199285283289332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>246.8853</c:v>
+                  <c:v>2.3924952320180339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1350.338</c:v>
+                  <c:v>3.1304424893556169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4A6E-C649-8FDC-8C6CD47D9500}"/>
+              <c16:uniqueId val="{00000002-D69E-1543-B00A-DA851C7C0D64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2462,7 +2483,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$22</c:f>
+              <c:f>'Sheet1 (2)'!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2489,42 +2510,42 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$22:$J$22</c:f>
+                <c:f>'Sheet1 (2)'!$G$22:$J$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>9.7216380000000004</c:v>
+                    <c:v>0.9877394454230044</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>41.179780000000001</c:v>
+                    <c:v>1.6146840221013123</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>227.24979999999999</c:v>
+                    <c:v>2.3565035096764708</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1475.732</c:v>
+                    <c:v>3.1690074946895397</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$G$22:$J$22</c:f>
+                <c:f>'Sheet1 (2)'!$G$22:$J$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>9.7216380000000004</c:v>
+                    <c:v>0.9877394454230044</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>41.179780000000001</c:v>
+                    <c:v>1.6146840221013123</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>227.24979999999999</c:v>
+                    <c:v>2.3565035096764708</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1475.732</c:v>
+                    <c:v>3.1690074946895397</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2545,7 +2566,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$18:$E$18</c:f>
+              <c:f>'Sheet1 (2)'!$C$18:$E$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2562,25 +2583,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$22:$E$22</c:f>
+              <c:f>'Sheet1 (2)'!$C$22:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>44.009230000000002</c:v>
+                  <c:v>1.6435437700699551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>217.24690000000001</c:v>
+                  <c:v>2.3369535880090839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1284.693</c:v>
+                  <c:v>3.1087993577566051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4A6E-C649-8FDC-8C6CD47D9500}"/>
+              <c16:uniqueId val="{00000003-D69E-1543-B00A-DA851C7C0D64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2870,6 +2891,2485 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$19:$J$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>11.849437999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>55.736260000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>260.71730000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1492.7919999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$19:$J$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>11.849437999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>55.736260000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>260.71730000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1492.7919999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>mass.3rd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mass.4th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mass.5th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mass.wander</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41.985239999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>261.47899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1590.982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10990.237999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1C7-BD4B-BBFE-C940B188B5FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>267</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$20:$J$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.3338900000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>43.067410000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>229.35669999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1368.0129999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$20:$J$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.3338900000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>43.067410000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>229.35669999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1368.0129999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>mass.3rd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mass.4th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mass.5th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mass.wander</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>40.373460000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231.66309999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1591.8409999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10364.455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D1C7-BD4B-BBFE-C940B188B5FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$21:$J$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>18.516448</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>75.336590000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>237.51050000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1519.2629999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$21:$J$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>18.516448</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>75.336590000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>237.51050000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1519.2629999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>mass.3rd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mass.4th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mass.5th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mass.wander</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>52.472110000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>246.8853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1350.338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8149.7290000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D1C7-BD4B-BBFE-C940B188B5FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>337</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$22:$J$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.7216380000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>41.179780000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>227.24979999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1475.732</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$22:$J$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.7216380000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>41.179780000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>227.24979999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1475.732</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>mass.3rd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mass.4th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mass.5th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mass.wander</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44.009230000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217.24690000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1284.693</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7822.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D1C7-BD4B-BBFE-C940B188B5FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1091114688"/>
+        <c:axId val="763565231"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1091114688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763565231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="763565231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1091114688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>avg time to instar (days)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$T$19:$Y$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.48304589999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.40237390000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.46290999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.76842449999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.86971849999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.86971849999999995</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$T$19:$Y$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.48304589999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.40237390000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.46290999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.76842449999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.86971849999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.86971849999999995</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$18:$S$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>time.2nd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>time.3rd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>time.4th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>time.5th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>time.wander</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>time.pupate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$19:$S$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.6666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1904760000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2857139999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2380949999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.61538</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.615379999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74E1-5F49-AC3D-DCF06EE4BAE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>267</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$T$20:$Y$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.40191850000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.54912519999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.58177449999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.75752629999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.37553379999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.37553379999999997</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$T$20:$Y$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.40191850000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.54912519999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.58177449999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.75752629999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.37553379999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.37553379999999997</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$18:$S$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>time.2nd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>time.3rd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>time.4th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>time.5th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>time.wander</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>time.pupate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$20:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8076920000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3076920000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.538462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4230769999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.15385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.153849999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-882E-4A45-A3C3-E81B4113AD1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$T$21:$Y$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.50725730000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.50145989999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.60697699999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.88522639999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2210278999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0593499</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$T$21:$Y$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.50725730000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.50145989999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.60697699999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.88522639999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2210278999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0593499</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$18:$S$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>time.2nd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>time.3rd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>time.4th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>time.5th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>time.wander</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>time.pupate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$21:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4210529999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1578949999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5789470000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3157889999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.909090000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-882E-4A45-A3C3-E81B4113AD1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>337</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$T$22:$Y$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.50839109999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.58703950000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.70601809999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.91766289999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$T$22:$Y$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.50839109999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.58703950000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.70601809999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.91766289999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$18:$S$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>time.2nd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>time.3rd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>time.4th</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>time.5th</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>time.wander</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>time.pupate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$22:$S$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.461538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.230769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.538462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-882E-4A45-A3C3-E81B4113AD1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1093875424"/>
+        <c:axId val="1093877072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1093875424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093877072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1093877072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093875424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>avg</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> instar starting masses (mg)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$19:$J$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>11.849437999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>55.736260000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>260.71730000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1492.7919999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$19:$J$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>11.849437999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>55.736260000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>260.71730000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1492.7919999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>mass.3rd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mass.4th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mass.5th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>41.985239999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>261.47899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1590.982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A6E-C649-8FDC-8C6CD47D9500}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>267</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$20:$J$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.3338900000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>43.067410000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>229.35669999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1368.0129999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$20:$J$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.3338900000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>43.067410000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>229.35669999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1368.0129999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>mass.3rd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mass.4th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mass.5th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40.373460000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231.66309999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1591.8409999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4A6E-C649-8FDC-8C6CD47D9500}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$21:$J$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>18.516448</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>75.336590000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>237.51050000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1519.2629999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$21:$J$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>18.516448</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>75.336590000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>237.51050000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1519.2629999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>mass.3rd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mass.4th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mass.5th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>52.472110000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>246.8853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1350.338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4A6E-C649-8FDC-8C6CD47D9500}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>337</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$22:$J$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.7216380000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>41.179780000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>227.24979999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1475.732</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$22:$J$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.7216380000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>41.179780000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>227.24979999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1475.732</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>mass.3rd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mass.4th</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mass.5th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>44.009230000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217.24690000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1284.693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4A6E-C649-8FDC-8C6CD47D9500}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1091114688"/>
+        <c:axId val="763565231"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1091114688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763565231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="763565231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1091114688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>avg</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> instar starting masses (mg)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
               <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
@@ -3519,7 +6019,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4532,6 +7032,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7047,7 +9667,1635 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBD531F-4E52-9A47-A2DD-38AF65DDF96F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E829FE-AE0E-C847-8199-63779A5B29D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>200163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>618711</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE65730-0263-6441-8CD3-35D05975B349}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7162,7 +11410,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7543,14 +11791,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D31A59-316A-8C46-8B17-B2E0BAD47F57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C2E24F-050A-AB44-8621-CD2576645E34}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView zoomScale="184" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="178" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
@@ -7923,380 +12174,456 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>330</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="20">
+        <f>D12/C12*100</f>
+        <v>15.789473684210526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>337</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="20">
+        <f>D13/C13*100</f>
+        <v>7.6923076923076925</v>
+      </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="7" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="7"/>
       <c r="L17" s="4"/>
       <c r="M17" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="10" t="s">
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="8"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="7"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="12" t="s">
+      <c r="R18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S18" s="12" t="s">
+      <c r="S18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="8" t="s">
+      <c r="T18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U18" s="8" t="s">
+      <c r="U18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="V18" s="8" t="s">
+      <c r="V18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="W18" s="8" t="s">
+      <c r="W18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="X18" s="8" t="s">
+      <c r="X18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Y18" s="8" t="s">
+      <c r="Y18" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B19" s="15">
+      <c r="B19" s="12">
         <v>260</v>
       </c>
-      <c r="C19" s="13">
-        <v>41.985239999999997</v>
-      </c>
-      <c r="D19" s="13">
-        <v>261.47899999999998</v>
-      </c>
-      <c r="E19" s="13">
-        <v>1590.982</v>
-      </c>
-      <c r="F19" s="13">
-        <v>10990.237999999999</v>
-      </c>
-      <c r="G19" s="9">
-        <v>11.849437999999999</v>
-      </c>
-      <c r="H19" s="9">
-        <v>55.736260000000001</v>
-      </c>
-      <c r="I19" s="9">
-        <v>260.71730000000002</v>
-      </c>
-      <c r="J19" s="9">
-        <v>1492.7919999999999</v>
+      <c r="C19" s="11">
+        <f>LOG(41.98524)</f>
+        <v>1.6230966400841338</v>
+      </c>
+      <c r="D19" s="11">
+        <f>LOG(261.479)</f>
+        <v>2.4174368153817176</v>
+      </c>
+      <c r="E19" s="11">
+        <f>LOG(1590.982)</f>
+        <v>3.2016652661677032</v>
+      </c>
+      <c r="F19" s="11">
+        <f>LOG(10990.238)</f>
+        <v>4.0410070974250827</v>
+      </c>
+      <c r="G19" s="8">
+        <f>LOG(11.849438)</f>
+        <v>1.0736977529379583</v>
+      </c>
+      <c r="H19" s="8">
+        <f>LOG(55.73626)</f>
+        <v>1.7461378234397813</v>
+      </c>
+      <c r="I19" s="8">
+        <f>LOG(260.7173)</f>
+        <v>2.4161698499073299</v>
+      </c>
+      <c r="J19" s="8">
+        <f>LOG(1492.792)</f>
+        <v>3.1739992989873893</v>
       </c>
       <c r="L19" s="2"/>
-      <c r="M19" s="15">
+      <c r="M19" s="12">
         <v>260</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="11">
         <v>1.6666669999999999</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="11">
         <v>4.1904760000000003</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="11">
         <v>6.2857139999999996</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="11">
         <v>9.2380949999999995</v>
       </c>
-      <c r="R19" s="13">
+      <c r="R19" s="11">
         <v>13.61538</v>
       </c>
-      <c r="S19" s="13">
+      <c r="S19" s="11">
         <v>17.615379999999998</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="8">
         <v>0.48304589999999997</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U19" s="8">
         <v>0.40237390000000001</v>
       </c>
-      <c r="V19" s="9">
+      <c r="V19" s="8">
         <v>0.46290999999999999</v>
       </c>
-      <c r="W19" s="9">
+      <c r="W19" s="8">
         <v>0.76842449999999995</v>
       </c>
-      <c r="X19" s="9">
+      <c r="X19" s="8">
         <v>0.86971849999999995</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="Y19" s="8">
         <v>0.86971849999999995</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B20" s="16">
+      <c r="B20" s="13">
         <v>267</v>
       </c>
-      <c r="C20" s="13">
-        <v>40.373460000000001</v>
-      </c>
-      <c r="D20" s="13">
-        <v>231.66309999999999</v>
-      </c>
-      <c r="E20" s="13">
-        <v>1591.8409999999999</v>
-      </c>
-      <c r="F20" s="13">
-        <v>10364.455</v>
-      </c>
-      <c r="G20" s="9">
-        <v>9.3338900000000002</v>
-      </c>
-      <c r="H20" s="9">
-        <v>43.067410000000002</v>
-      </c>
-      <c r="I20" s="9">
-        <v>229.35669999999999</v>
-      </c>
-      <c r="J20" s="9">
-        <v>1368.0129999999999</v>
+      <c r="C20" s="11">
+        <f>LOG(40.37346)</f>
+        <v>1.6060959699829356</v>
+      </c>
+      <c r="D20" s="11">
+        <f>LOG(231.6631)</f>
+        <v>2.3648568635586122</v>
+      </c>
+      <c r="E20" s="11">
+        <f>LOG(1591.841)</f>
+        <v>3.2018996863469043</v>
+      </c>
+      <c r="F20" s="11">
+        <f>LOG(10364.455)</f>
+        <v>4.0155464702778731</v>
+      </c>
+      <c r="G20" s="8">
+        <f>LOG(9.33389)</f>
+        <v>0.97006267841387817</v>
+      </c>
+      <c r="H20" s="8">
+        <f>LOG(43.06741)</f>
+        <v>1.6341487548243623</v>
+      </c>
+      <c r="I20" s="8">
+        <f>LOG(229.3567)</f>
+        <v>2.3605114313244564</v>
+      </c>
+      <c r="J20" s="8">
+        <f>LOG(1368.013)</f>
+        <v>3.1360902244319329</v>
       </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="16">
+      <c r="M20" s="13">
         <v>267</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="11">
         <v>1.8076920000000001</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="11">
         <v>4.3076920000000003</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="11">
         <v>6.538462</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="11">
         <v>9.4230769999999993</v>
       </c>
-      <c r="R20" s="13">
+      <c r="R20" s="11">
         <v>15.15385</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="11">
         <v>19.153849999999998</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="8">
         <v>0.40191850000000001</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U20" s="8">
         <v>0.54912519999999998</v>
       </c>
-      <c r="V20" s="9">
+      <c r="V20" s="8">
         <v>0.58177449999999997</v>
       </c>
-      <c r="W20" s="9">
+      <c r="W20" s="8">
         <v>0.75752629999999999</v>
       </c>
-      <c r="X20" s="9">
+      <c r="X20" s="8">
         <v>0.37553379999999997</v>
       </c>
-      <c r="Y20" s="9">
+      <c r="Y20" s="8">
         <v>0.37553379999999997</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B21" s="17">
+      <c r="B21" s="14">
         <v>330</v>
       </c>
-      <c r="C21" s="13">
-        <v>52.472110000000001</v>
-      </c>
-      <c r="D21" s="13">
-        <v>246.8853</v>
-      </c>
-      <c r="E21" s="13">
-        <v>1350.338</v>
-      </c>
-      <c r="F21" s="13">
-        <v>8149.7290000000003</v>
-      </c>
-      <c r="G21" s="9">
-        <v>18.516448</v>
-      </c>
-      <c r="H21" s="9">
-        <v>75.336590000000001</v>
-      </c>
-      <c r="I21" s="9">
-        <v>237.51050000000001</v>
-      </c>
-      <c r="J21" s="9">
-        <v>1519.2629999999999</v>
+      <c r="C21" s="11">
+        <f>LOG(52.47211)</f>
+        <v>1.7199285283289332</v>
+      </c>
+      <c r="D21" s="11">
+        <f>LOG(246.8853)</f>
+        <v>2.3924952320180339</v>
+      </c>
+      <c r="E21" s="11">
+        <f>LOG(1350.338)</f>
+        <v>3.1304424893556169</v>
+      </c>
+      <c r="F21" s="11">
+        <f>LOG(8149.729)</f>
+        <v>3.9111431675422601</v>
+      </c>
+      <c r="G21" s="8">
+        <f>LOG(18.516448)</f>
+        <v>1.2675576798648325</v>
+      </c>
+      <c r="H21" s="8">
+        <f>LOG(75.33659)</f>
+        <v>1.8770059586108225</v>
+      </c>
+      <c r="I21" s="8">
+        <f>LOG(237.5105)</f>
+        <v>2.3756828139240893</v>
+      </c>
+      <c r="J21" s="8">
+        <f>LOG(1519.263)</f>
+        <v>3.1816329611978036</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="M21" s="17">
+      <c r="M21" s="14">
         <v>330</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="11">
         <v>1.4210529999999999</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="11">
         <v>3.1578949999999999</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="11">
         <v>4.5789470000000003</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="11">
         <v>7.3157889999999997</v>
       </c>
-      <c r="R21" s="13">
+      <c r="R21" s="11">
         <v>11.909090000000001</v>
       </c>
-      <c r="S21" s="13">
+      <c r="S21" s="11">
         <v>15.7</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="8">
         <v>0.50725730000000002</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="8">
         <v>0.50145989999999996</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V21" s="8">
         <v>0.60697699999999999</v>
       </c>
-      <c r="W21" s="9">
+      <c r="W21" s="8">
         <v>0.88522639999999997</v>
       </c>
-      <c r="X21" s="9">
+      <c r="X21" s="8">
         <v>1.2210278999999999</v>
       </c>
-      <c r="Y21" s="9">
+      <c r="Y21" s="8">
         <v>1.0593499</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B22" s="18">
+      <c r="B22" s="15">
         <v>337</v>
       </c>
-      <c r="C22" s="13">
-        <v>44.009230000000002</v>
-      </c>
-      <c r="D22" s="13">
-        <v>217.24690000000001</v>
-      </c>
-      <c r="E22" s="13">
-        <v>1284.693</v>
-      </c>
-      <c r="F22" s="13">
-        <v>7822.5</v>
-      </c>
-      <c r="G22" s="9">
-        <v>9.7216380000000004</v>
-      </c>
-      <c r="H22" s="9">
-        <v>41.179780000000001</v>
-      </c>
-      <c r="I22" s="9">
-        <v>227.24979999999999</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1475.732</v>
+      <c r="C22" s="11">
+        <f>LOG(44.00923)</f>
+        <v>1.6435437700699551</v>
+      </c>
+      <c r="D22" s="11">
+        <f>LOG(217.2469)</f>
+        <v>2.3369535880090839</v>
+      </c>
+      <c r="E22" s="11">
+        <f>LOG(1284.693)</f>
+        <v>3.1087993577566051</v>
+      </c>
+      <c r="F22" s="11">
+        <f>LOG(7822.5)</f>
+        <v>3.893345571818231</v>
+      </c>
+      <c r="G22" s="8">
+        <f>LOG(9.721638)</f>
+        <v>0.9877394454230044</v>
+      </c>
+      <c r="H22" s="8">
+        <f>LOG(41.17978)</f>
+        <v>1.6146840221013123</v>
+      </c>
+      <c r="I22" s="8">
+        <f>LOG(227.2498)</f>
+        <v>2.3565035096764708</v>
+      </c>
+      <c r="J22" s="8">
+        <f>LOG(1475.732)</f>
+        <v>3.1690074946895397</v>
       </c>
       <c r="L22" s="2"/>
-      <c r="M22" s="18">
+      <c r="M22" s="15">
         <v>337</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="11">
         <v>1.461538</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="11">
         <v>3.230769</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="11">
         <v>5.538462</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="11">
         <v>9</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="11">
         <v>14</v>
       </c>
-      <c r="S22" s="13">
+      <c r="S22" s="11">
         <v>18</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="8">
         <v>0.50839109999999998</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="8">
         <v>0.58703950000000005</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V22" s="8">
         <v>0.70601809999999998</v>
       </c>
-      <c r="W22" s="9">
+      <c r="W22" s="8">
         <v>0.91766289999999995</v>
       </c>
-      <c r="X22" s="9">
+      <c r="X22" s="8">
         <v>0</v>
       </c>
-      <c r="Y22" s="9">
+      <c r="Y22" s="8">
         <v>0</v>
       </c>
     </row>
@@ -8311,10 +12638,778 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D31A59-316A-8C46-8B17-B2E0BAD47F57}">
+  <dimension ref="A1:Y22"/>
+  <sheetViews>
+    <sheetView topLeftCell="B59" zoomScale="189" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2">
+        <v>260</v>
+      </c>
+      <c r="C3" s="2">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
+        <v>41.985239999999997</v>
+      </c>
+      <c r="E3" s="2">
+        <v>11.849437999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>261.47899999999998</v>
+      </c>
+      <c r="G3" s="2">
+        <v>55.736260000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1590.982</v>
+      </c>
+      <c r="I3" s="2">
+        <v>260.71730000000002</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10990.237999999999</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1492.7919999999999</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.6666669999999999</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.48304589999999997</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4.1904760000000003</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.40237390000000001</v>
+      </c>
+      <c r="P3" s="2">
+        <v>6.2857139999999996</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.46290999999999999</v>
+      </c>
+      <c r="R3" s="2">
+        <v>9.2380949999999995</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.76842449999999995</v>
+      </c>
+      <c r="T3" s="2">
+        <v>13.61538</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.86971849999999995</v>
+      </c>
+      <c r="V3" s="2">
+        <v>17.615379999999998</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.86971849999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2">
+        <v>267</v>
+      </c>
+      <c r="C4" s="2">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2">
+        <v>40.373460000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.3338900000000002</v>
+      </c>
+      <c r="F4" s="2">
+        <v>231.66309999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43.067410000000002</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1591.8409999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>229.35669999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10364.455</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1368.0129999999999</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.8076920000000001</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.40191850000000001</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4.3076920000000003</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.54912519999999998</v>
+      </c>
+      <c r="P4" s="2">
+        <v>6.538462</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.58177449999999997</v>
+      </c>
+      <c r="R4" s="2">
+        <v>9.4230769999999993</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.75752629999999999</v>
+      </c>
+      <c r="T4" s="2">
+        <v>15.15385</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.37553379999999997</v>
+      </c>
+      <c r="V4" s="2">
+        <v>19.153849999999998</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.37553379999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2">
+        <v>330</v>
+      </c>
+      <c r="C5" s="2">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>52.472110000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>18.516448</v>
+      </c>
+      <c r="F5" s="2">
+        <v>246.8853</v>
+      </c>
+      <c r="G5" s="2">
+        <v>75.336590000000001</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1350.338</v>
+      </c>
+      <c r="I5" s="2">
+        <v>237.51050000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>8149.7290000000003</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1519.2629999999999</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1.4210529999999999</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.50725730000000002</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3.1578949999999999</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.50145989999999996</v>
+      </c>
+      <c r="P5" s="2">
+        <v>4.5789470000000003</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.60697699999999999</v>
+      </c>
+      <c r="R5" s="2">
+        <v>7.3157889999999997</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.88522639999999997</v>
+      </c>
+      <c r="T5" s="2">
+        <v>11.909090000000001</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1.2210278999999999</v>
+      </c>
+      <c r="V5" s="2">
+        <v>15.7</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1.0593499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2">
+        <v>337</v>
+      </c>
+      <c r="C6" s="2">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44.009230000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9.7216380000000004</v>
+      </c>
+      <c r="F6" s="2">
+        <v>217.24690000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>41.179780000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1284.693</v>
+      </c>
+      <c r="I6" s="2">
+        <v>227.24979999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>7822.5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1475.732</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.461538</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.50839109999999998</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3.230769</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.58703950000000005</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5.538462</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.70601809999999998</v>
+      </c>
+      <c r="R6" s="2">
+        <v>9</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.91766289999999995</v>
+      </c>
+      <c r="T6" s="2">
+        <v>14</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>18</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="7"/>
+      <c r="L17" s="4"/>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="7"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B19" s="12">
+        <v>260</v>
+      </c>
+      <c r="C19" s="11">
+        <v>41.985239999999997</v>
+      </c>
+      <c r="D19" s="11">
+        <v>261.47899999999998</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1590.982</v>
+      </c>
+      <c r="F19" s="11">
+        <v>10990.237999999999</v>
+      </c>
+      <c r="G19" s="8">
+        <v>11.849437999999999</v>
+      </c>
+      <c r="H19" s="8">
+        <v>55.736260000000001</v>
+      </c>
+      <c r="I19" s="8">
+        <v>260.71730000000002</v>
+      </c>
+      <c r="J19" s="8">
+        <v>1492.7919999999999</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="12">
+        <v>260</v>
+      </c>
+      <c r="N19" s="11">
+        <v>1.6666669999999999</v>
+      </c>
+      <c r="O19" s="11">
+        <v>4.1904760000000003</v>
+      </c>
+      <c r="P19" s="11">
+        <v>6.2857139999999996</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>9.2380949999999995</v>
+      </c>
+      <c r="R19" s="11">
+        <v>13.61538</v>
+      </c>
+      <c r="S19" s="11">
+        <v>17.615379999999998</v>
+      </c>
+      <c r="T19" s="8">
+        <v>0.48304589999999997</v>
+      </c>
+      <c r="U19" s="8">
+        <v>0.40237390000000001</v>
+      </c>
+      <c r="V19" s="8">
+        <v>0.46290999999999999</v>
+      </c>
+      <c r="W19" s="8">
+        <v>0.76842449999999995</v>
+      </c>
+      <c r="X19" s="8">
+        <v>0.86971849999999995</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>0.86971849999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B20" s="13">
+        <v>267</v>
+      </c>
+      <c r="C20" s="11">
+        <v>40.373460000000001</v>
+      </c>
+      <c r="D20" s="11">
+        <v>231.66309999999999</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1591.8409999999999</v>
+      </c>
+      <c r="F20" s="11">
+        <v>10364.455</v>
+      </c>
+      <c r="G20" s="8">
+        <v>9.3338900000000002</v>
+      </c>
+      <c r="H20" s="8">
+        <v>43.067410000000002</v>
+      </c>
+      <c r="I20" s="8">
+        <v>229.35669999999999</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1368.0129999999999</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="13">
+        <v>267</v>
+      </c>
+      <c r="N20" s="11">
+        <v>1.8076920000000001</v>
+      </c>
+      <c r="O20" s="11">
+        <v>4.3076920000000003</v>
+      </c>
+      <c r="P20" s="11">
+        <v>6.538462</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>9.4230769999999993</v>
+      </c>
+      <c r="R20" s="11">
+        <v>15.15385</v>
+      </c>
+      <c r="S20" s="11">
+        <v>19.153849999999998</v>
+      </c>
+      <c r="T20" s="8">
+        <v>0.40191850000000001</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0.54912519999999998</v>
+      </c>
+      <c r="V20" s="8">
+        <v>0.58177449999999997</v>
+      </c>
+      <c r="W20" s="8">
+        <v>0.75752629999999999</v>
+      </c>
+      <c r="X20" s="8">
+        <v>0.37553379999999997</v>
+      </c>
+      <c r="Y20" s="8">
+        <v>0.37553379999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B21" s="14">
+        <v>330</v>
+      </c>
+      <c r="C21" s="11">
+        <v>52.472110000000001</v>
+      </c>
+      <c r="D21" s="11">
+        <v>246.8853</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1350.338</v>
+      </c>
+      <c r="F21" s="11">
+        <v>8149.7290000000003</v>
+      </c>
+      <c r="G21" s="8">
+        <v>18.516448</v>
+      </c>
+      <c r="H21" s="8">
+        <v>75.336590000000001</v>
+      </c>
+      <c r="I21" s="8">
+        <v>237.51050000000001</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1519.2629999999999</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="14">
+        <v>330</v>
+      </c>
+      <c r="N21" s="11">
+        <v>1.4210529999999999</v>
+      </c>
+      <c r="O21" s="11">
+        <v>3.1578949999999999</v>
+      </c>
+      <c r="P21" s="11">
+        <v>4.5789470000000003</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>7.3157889999999997</v>
+      </c>
+      <c r="R21" s="11">
+        <v>11.909090000000001</v>
+      </c>
+      <c r="S21" s="11">
+        <v>15.7</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0.50725730000000002</v>
+      </c>
+      <c r="U21" s="8">
+        <v>0.50145989999999996</v>
+      </c>
+      <c r="V21" s="8">
+        <v>0.60697699999999999</v>
+      </c>
+      <c r="W21" s="8">
+        <v>0.88522639999999997</v>
+      </c>
+      <c r="X21" s="8">
+        <v>1.2210278999999999</v>
+      </c>
+      <c r="Y21" s="8">
+        <v>1.0593499</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B22" s="15">
+        <v>337</v>
+      </c>
+      <c r="C22" s="11">
+        <v>44.009230000000002</v>
+      </c>
+      <c r="D22" s="11">
+        <v>217.24690000000001</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1284.693</v>
+      </c>
+      <c r="F22" s="11">
+        <v>7822.5</v>
+      </c>
+      <c r="G22" s="8">
+        <v>9.7216380000000004</v>
+      </c>
+      <c r="H22" s="8">
+        <v>41.179780000000001</v>
+      </c>
+      <c r="I22" s="8">
+        <v>227.24979999999999</v>
+      </c>
+      <c r="J22" s="8">
+        <v>1475.732</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="15">
+        <v>337</v>
+      </c>
+      <c r="N22" s="11">
+        <v>1.461538</v>
+      </c>
+      <c r="O22" s="11">
+        <v>3.230769</v>
+      </c>
+      <c r="P22" s="11">
+        <v>5.538462</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>9</v>
+      </c>
+      <c r="R22" s="11">
+        <v>14</v>
+      </c>
+      <c r="S22" s="11">
+        <v>18</v>
+      </c>
+      <c r="T22" s="8">
+        <v>0.50839109999999998</v>
+      </c>
+      <c r="U22" s="8">
+        <v>0.58703950000000005</v>
+      </c>
+      <c r="V22" s="8">
+        <v>0.70601809999999998</v>
+      </c>
+      <c r="W22" s="8">
+        <v>0.91766289999999995</v>
+      </c>
+      <c r="X22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="N17:R17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5697BF0-3995-194D-A4BB-9D78AC7A358A}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -8634,33 +13729,33 @@
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="I14" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5" t="s">
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" t="s">

--- a/temp figs.xlsx
+++ b/temp figs.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="436" documentId="8_{4C8B5679-8E33-D44E-B831-3F2CAE5793B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF559B40-1A39-314A-9D03-757A0334BAB5}"/>
   <bookViews>
-    <workbookView xWindow="11300" yWindow="500" windowWidth="22300" windowHeight="18960" xr2:uid="{84017D10-4509-084C-9811-4FC86B7B78D6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{84017D10-4509-084C-9811-4FC86B7B78D6}"/>
   </bookViews>
   <sheets>
     <sheet name="A mass+dev log1, most adults" sheetId="4" r:id="rId1"/>
@@ -23943,8 +23943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1009B4A-6CE7-0844-99E8-7A1384AD9D25}">
   <dimension ref="A1:AG66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D92" workbookViewId="0">
-      <selection activeCell="L112" sqref="L112"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="115" workbookViewId="0">
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25792,7 +25792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D31A59-316A-8C46-8B17-B2E0BAD47F57}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="57" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="116" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/temp figs.xlsx
+++ b/temp figs.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="436" documentId="8_{4C8B5679-8E33-D44E-B831-3F2CAE5793B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF559B40-1A39-314A-9D03-757A0334BAB5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{84017D10-4509-084C-9811-4FC86B7B78D6}"/>
+    <workbookView xWindow="1760" yWindow="500" windowWidth="31840" windowHeight="18960" xr2:uid="{84017D10-4509-084C-9811-4FC86B7B78D6}"/>
   </bookViews>
   <sheets>
     <sheet name="A mass+dev log1, most adults" sheetId="4" r:id="rId1"/>
@@ -23943,8 +23943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1009B4A-6CE7-0844-99E8-7A1384AD9D25}">
   <dimension ref="A1:AG66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="115" workbookViewId="0">
-      <selection activeCell="K106" sqref="K106"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="115" workbookViewId="0">
+      <selection activeCell="N106" sqref="N106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/temp figs.xlsx
+++ b/temp figs.xlsx
@@ -18,51 +18,6 @@
     <sheet name="A mass+dev unlog, to wander" sheetId="1" r:id="rId3"/>
     <sheet name="A  mass+dev unlog" sheetId="2" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">('A mass+dev log1, most adults'!$A$10:$B$10,'A mass+dev log1, most adults'!$D$10,'A mass+dev log1, most adults'!$F$10)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">('A mass+dev log1, most adults'!$A$3:$B$3,'A mass+dev log1, most adults'!$D$3,'A mass+dev log1, most adults'!$F$3)</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">('A mass+dev log1, most adults'!$A$4:$B$4,'A mass+dev log1, most adults'!$D$4,'A mass+dev log1, most adults'!$F$4)</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">('A mass+dev log1, most adults'!$A$5:$B$5,'A mass+dev log1, most adults'!$D$5,'A mass+dev log1, most adults'!$F$5)</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">('A mass+dev log1, most adults'!$A$6:$B$6,'A mass+dev log1, most adults'!$D$6,'A mass+dev log1, most adults'!$F$6)</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">('A mass+dev log1, most adults'!$A$7:$B$7,'A mass+dev log1, most adults'!$D$7,'A mass+dev log1, most adults'!$F$7)</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">('A mass+dev log1, most adults'!$A$8:$B$8,'A mass+dev log1, most adults'!$D$8,'A mass+dev log1, most adults'!$F$8)</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">('A mass+dev log1, most adults'!$A$9:$B$9,'A mass+dev log1, most adults'!$D$9,'A mass+dev log1, most adults'!$F$9)</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'A mass+dev log1, most adults'!$A$4:$B$10</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'A mass+dev log1, most adults'!$D$3</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'A mass+dev log1, most adults'!$D$4:$D$10</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">('A mass+dev log1, most adults'!$A$10:$B$10,'A mass+dev log1, most adults'!$D$10,'A mass+dev log1, most adults'!$F$10)</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">('A mass+dev log1, most adults'!$A$4:$B$4,'A mass+dev log1, most adults'!$D$4,'A mass+dev log1, most adults'!$F$4)</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">('A mass+dev log1, most adults'!$A$3:$B$3,'A mass+dev log1, most adults'!$D$3,'A mass+dev log1, most adults'!$F$3)</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">('A mass+dev log1, most adults'!$A$4:$B$4,'A mass+dev log1, most adults'!$D$4,'A mass+dev log1, most adults'!$F$4)</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">('A mass+dev log1, most adults'!$A$5:$B$5,'A mass+dev log1, most adults'!$D$5,'A mass+dev log1, most adults'!$F$5)</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">('A mass+dev log1, most adults'!$A$6:$B$6,'A mass+dev log1, most adults'!$D$6,'A mass+dev log1, most adults'!$F$6)</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">('A mass+dev log1, most adults'!$A$7:$B$7,'A mass+dev log1, most adults'!$D$7,'A mass+dev log1, most adults'!$F$7)</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">('A mass+dev log1, most adults'!$A$8:$B$8,'A mass+dev log1, most adults'!$D$8,'A mass+dev log1, most adults'!$F$8)</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">('A mass+dev log1, most adults'!$A$9:$B$9,'A mass+dev log1, most adults'!$D$9,'A mass+dev log1, most adults'!$F$9)</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">('A mass+dev log1, most adults'!$A$10:$B$10,'A mass+dev log1, most adults'!$D$10,'A mass+dev log1, most adults'!$F$10)</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">('A mass+dev log1, most adults'!$A$3:$B$3,'A mass+dev log1, most adults'!$D$3,'A mass+dev log1, most adults'!$F$3)</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">('A mass+dev log1, most adults'!$A$4:$B$4,'A mass+dev log1, most adults'!$D$4,'A mass+dev log1, most adults'!$F$4)</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">('A mass+dev log1, most adults'!$A$5:$B$5,'A mass+dev log1, most adults'!$D$5,'A mass+dev log1, most adults'!$F$5)</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">('A mass+dev log1, most adults'!$A$5:$B$5,'A mass+dev log1, most adults'!$D$5,'A mass+dev log1, most adults'!$F$5)</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">('A mass+dev log1, most adults'!$A$6:$B$6,'A mass+dev log1, most adults'!$D$6,'A mass+dev log1, most adults'!$F$6)</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">('A mass+dev log1, most adults'!$A$7:$B$7,'A mass+dev log1, most adults'!$D$7,'A mass+dev log1, most adults'!$F$7)</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">('A mass+dev log1, most adults'!$A$8:$B$8,'A mass+dev log1, most adults'!$D$8,'A mass+dev log1, most adults'!$F$8)</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">('A mass+dev log1, most adults'!$A$9:$B$9,'A mass+dev log1, most adults'!$D$9,'A mass+dev log1, most adults'!$F$9)</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">('A mass+dev log1, most adults'!$A$10:$B$10,'A mass+dev log1, most adults'!$D$10,'A mass+dev log1, most adults'!$F$10)</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">('A mass+dev log1, most adults'!$A$3:$B$3,'A mass+dev log1, most adults'!$D$3,'A mass+dev log1, most adults'!$F$3)</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">('A mass+dev log1, most adults'!$A$4:$B$4,'A mass+dev log1, most adults'!$D$4,'A mass+dev log1, most adults'!$F$4)</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">('A mass+dev log1, most adults'!$A$5:$B$5,'A mass+dev log1, most adults'!$D$5,'A mass+dev log1, most adults'!$F$5)</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">('A mass+dev log1, most adults'!$A$6:$B$6,'A mass+dev log1, most adults'!$D$6,'A mass+dev log1, most adults'!$F$6)</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">('A mass+dev log1, most adults'!$A$6:$B$6,'A mass+dev log1, most adults'!$D$6,'A mass+dev log1, most adults'!$F$6)</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">('A mass+dev log1, most adults'!$A$7:$B$7,'A mass+dev log1, most adults'!$D$7,'A mass+dev log1, most adults'!$F$7)</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">('A mass+dev log1, most adults'!$A$8:$B$8,'A mass+dev log1, most adults'!$D$8,'A mass+dev log1, most adults'!$F$8)</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">('A mass+dev log1, most adults'!$A$9:$B$9,'A mass+dev log1, most adults'!$D$9,'A mass+dev log1, most adults'!$F$9)</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">('A mass+dev log1, most adults'!$A$7:$B$7,'A mass+dev log1, most adults'!$D$7,'A mass+dev log1, most adults'!$F$7)</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">('A mass+dev log1, most adults'!$A$8:$B$8,'A mass+dev log1, most adults'!$D$8,'A mass+dev log1, most adults'!$F$8)</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">('A mass+dev log1, most adults'!$A$9:$B$9,'A mass+dev log1, most adults'!$D$9,'A mass+dev log1, most adults'!$F$9)</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">('A mass+dev log1, most adults'!$A$10:$B$10,'A mass+dev log1, most adults'!$D$10,'A mass+dev log1, most adults'!$F$10)</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">('A mass+dev log1, most adults'!$A$3:$B$3,'A mass+dev log1, most adults'!$D$3,'A mass+dev log1, most adults'!$F$3)</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -425,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -450,6 +405,20 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,26 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23943,8 +23892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1009B4A-6CE7-0844-99E8-7A1384AD9D25}">
   <dimension ref="A1:AG66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="115" workbookViewId="0">
-      <selection activeCell="N106" sqref="N106"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" workbookViewId="0">
+      <selection activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23961,48 +23910,48 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="U3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="V3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="26">
+      <c r="A4" s="21">
         <v>260</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="2">
@@ -24020,16 +23969,16 @@
       <c r="G4" s="2">
         <v>325.41050000000001</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="26">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="21">
         <v>260</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="S4" s="2">
@@ -24044,21 +23993,21 @@
       <c r="V4" s="2">
         <v>325.41050000000001</v>
       </c>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="2">
@@ -24077,10 +24026,10 @@
         <v>316.53820000000002</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="Q5" s="27">
+      <c r="Q5" s="22">
         <v>267</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="19" t="s">
         <v>44</v>
       </c>
       <c r="S5" s="2">
@@ -24097,10 +24046,10 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="27">
+      <c r="A6" s="22">
         <v>267</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="2">
@@ -24119,10 +24068,10 @@
         <v>19</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="Q6" s="28">
+      <c r="Q6" s="23">
         <v>330</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="19" t="s">
         <v>44</v>
       </c>
       <c r="S6" s="2">
@@ -24139,8 +24088,8 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="2">
@@ -24159,10 +24108,10 @@
         <v>456.62810000000002</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="Q7" s="26">
+      <c r="Q7" s="21">
         <v>260</v>
       </c>
-      <c r="R7" s="23" t="s">
+      <c r="R7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="S7" s="2">
@@ -24179,10 +24128,10 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+      <c r="A8" s="23">
         <v>330</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="2">
@@ -24201,10 +24150,10 @@
         <v>544.43340000000001</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="Q8" s="27">
+      <c r="Q8" s="22">
         <v>267</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="R8" s="19" t="s">
         <v>45</v>
       </c>
       <c r="S8" s="2">
@@ -24221,8 +24170,8 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="2">
@@ -24241,10 +24190,10 @@
         <v>277.74669999999998</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="Q9" s="28">
+      <c r="Q9" s="23">
         <v>330</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="19" t="s">
         <v>45</v>
       </c>
       <c r="S9" s="2">
@@ -24261,10 +24210,10 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+      <c r="A10" s="20">
         <v>337</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="2">
@@ -24282,10 +24231,10 @@
       <c r="G10" s="2">
         <v>325.70749999999998</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="Q10" s="20">
         <v>337</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="19" t="s">
         <v>45</v>
       </c>
       <c r="S10" s="2">
@@ -24327,31 +24276,31 @@
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -24484,74 +24433,70 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -24562,46 +24507,46 @@
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I47" s="22" t="s">
+      <c r="I47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="22" t="s">
+      <c r="J47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="22" t="s">
+      <c r="K47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L47" s="22" t="s">
+      <c r="L47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M47" s="22" t="s">
+      <c r="M47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N47" s="22" t="s">
+      <c r="N47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="22" t="s">
+      <c r="O47" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -24624,10 +24569,10 @@
       <c r="F48" s="2">
         <v>13.809519999999999</v>
       </c>
-      <c r="G48" s="33">
+      <c r="G48" s="24">
         <v>4</v>
       </c>
-      <c r="H48" s="35">
+      <c r="H48" s="26">
         <v>3.461538</v>
       </c>
       <c r="I48" s="2">
@@ -24645,10 +24590,10 @@
       <c r="M48" s="2">
         <v>1.1233453</v>
       </c>
-      <c r="N48" s="33">
+      <c r="N48" s="24">
         <v>0</v>
       </c>
-      <c r="O48" s="35">
+      <c r="O48" s="26">
         <v>0.877058</v>
       </c>
     </row>
@@ -24671,10 +24616,10 @@
       <c r="F49" s="2">
         <v>15.11538</v>
       </c>
-      <c r="G49" s="33">
+      <c r="G49" s="24">
         <v>4</v>
       </c>
-      <c r="H49" s="35">
+      <c r="H49" s="26">
         <v>4.0714290000000002</v>
       </c>
       <c r="I49" s="2">
@@ -24692,10 +24637,10 @@
       <c r="M49" s="2">
         <v>0.71144490000000005</v>
       </c>
-      <c r="N49" s="33">
+      <c r="N49" s="24">
         <v>0</v>
       </c>
-      <c r="O49" s="35">
+      <c r="O49" s="26">
         <v>0.82874190000000003</v>
       </c>
     </row>
@@ -24718,10 +24663,10 @@
       <c r="F50" s="2">
         <v>11.94444</v>
       </c>
-      <c r="G50" s="33">
+      <c r="G50" s="24">
         <v>4.1176469999999998</v>
       </c>
-      <c r="H50" s="35">
+      <c r="H50" s="26">
         <v>3</v>
       </c>
       <c r="I50" s="2">
@@ -24739,10 +24684,10 @@
       <c r="M50" s="2">
         <v>1.4337209</v>
       </c>
-      <c r="N50" s="33">
+      <c r="N50" s="24">
         <v>0.48507129999999998</v>
       </c>
-      <c r="O50" s="35">
+      <c r="O50" s="26">
         <v>1.3008873000000001</v>
       </c>
     </row>
@@ -24765,10 +24710,10 @@
       <c r="F51" s="2">
         <v>14</v>
       </c>
-      <c r="G51" s="33">
+      <c r="G51" s="24">
         <v>4</v>
       </c>
-      <c r="H51" s="35">
+      <c r="H51" s="26">
         <v>4</v>
       </c>
       <c r="I51" s="2">
@@ -24786,61 +24731,61 @@
       <c r="M51" s="2">
         <v>0</v>
       </c>
-      <c r="N51" s="33">
+      <c r="N51" s="24">
         <v>0</v>
       </c>
-      <c r="O51" s="35">
+      <c r="O51" s="26">
         <v>1.4142136000000001</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="H53" s="33">
+      <c r="H53" s="24">
         <v>18.461539999999999</v>
       </c>
-      <c r="I53" s="21"/>
-      <c r="O53" s="34">
+      <c r="I53" s="18"/>
+      <c r="O53" s="25">
         <v>0.877058</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F54" s="33"/>
-      <c r="H54" s="33">
+      <c r="F54" s="24"/>
+      <c r="H54" s="24">
         <v>19.071429999999999</v>
       </c>
-      <c r="I54" s="21"/>
-      <c r="O54" s="33">
+      <c r="I54" s="18"/>
+      <c r="O54" s="24">
         <v>0.877058</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F55" s="33"/>
-      <c r="H55" s="33">
+      <c r="F55" s="24"/>
+      <c r="H55" s="24">
         <v>18</v>
       </c>
-      <c r="I55" s="21"/>
-      <c r="O55" s="33">
+      <c r="I55" s="18"/>
+      <c r="O55" s="24">
         <v>1.3008873000000001</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F56" s="33"/>
-      <c r="H56" s="33">
+      <c r="F56" s="24"/>
+      <c r="H56" s="24">
         <v>19</v>
       </c>
-      <c r="I56" s="21"/>
-      <c r="O56" s="33">
+      <c r="I56" s="18"/>
+      <c r="O56" s="24">
         <v>1.4142136000000001</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F57" s="33"/>
-      <c r="I57" s="21"/>
+      <c r="F57" s="24"/>
+      <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="18" t="s">
         <v>57</v>
       </c>
       <c r="G58" s="2">
@@ -24857,7 +24802,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F59" s="21"/>
+      <c r="F59" s="18"/>
       <c r="G59" s="2">
         <v>19.115379999999998</v>
       </c>
@@ -24872,7 +24817,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F60" s="21"/>
+      <c r="F60" s="18"/>
       <c r="G60" s="2">
         <v>15.82353</v>
       </c>
@@ -24901,37 +24846,37 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F63" s="36" t="s">
+      <c r="F63" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="H63" s="35">
+      <c r="H63" s="26">
         <v>3.461538</v>
       </c>
-      <c r="O63" s="35">
+      <c r="O63" s="26">
         <v>0.877058</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H64" s="35">
+      <c r="H64" s="26">
         <v>4.0714290000000002</v>
       </c>
-      <c r="O64" s="35">
+      <c r="O64" s="26">
         <v>0.82874190000000003</v>
       </c>
     </row>
     <row r="65" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H65" s="35">
+      <c r="H65" s="26">
         <v>3</v>
       </c>
-      <c r="O65" s="35">
+      <c r="O65" s="26">
         <v>1.3008873000000001</v>
       </c>
     </row>
     <row r="66" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H66" s="35">
+      <c r="H66" s="26">
         <v>4</v>
       </c>
-      <c r="O66" s="35">
+      <c r="O66" s="26">
         <v>1.4142136000000001</v>
       </c>
     </row>
@@ -25381,23 +25326,23 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="7"/>
       <c r="L17" s="4"/>
       <c r="M17" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
       <c r="S17" s="10"/>
       <c r="T17" s="6" t="s">
         <v>25</v>
@@ -26181,23 +26126,23 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="7"/>
       <c r="L17" s="4"/>
       <c r="M17" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
       <c r="S17" s="10"/>
       <c r="T17" s="6" t="s">
         <v>25</v>
@@ -26880,33 +26825,33 @@
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
       <c r="I14" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20" t="s">
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
